--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.558708666666667</v>
+        <v>1.495937333333333</v>
       </c>
       <c r="N2">
-        <v>4.676126</v>
+        <v>4.487812</v>
       </c>
       <c r="O2">
-        <v>0.3590038617594454</v>
+        <v>0.3639577964822184</v>
       </c>
       <c r="P2">
-        <v>0.3716334638810379</v>
+        <v>0.3715212096336638</v>
       </c>
       <c r="Q2">
-        <v>236.4967428661211</v>
+        <v>216.5867511928866</v>
       </c>
       <c r="R2">
-        <v>2128.47068579509</v>
+        <v>1949.28076073598</v>
       </c>
       <c r="S2">
-        <v>0.0969575895373327</v>
+        <v>0.08844343095058078</v>
       </c>
       <c r="T2">
-        <v>0.1034392133148602</v>
+        <v>0.09325653532989719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.532287</v>
       </c>
       <c r="O3">
-        <v>0.5015083552327337</v>
+        <v>0.5297630075657004</v>
       </c>
       <c r="P3">
-        <v>0.5191512044104615</v>
+        <v>0.5407720216252946</v>
       </c>
       <c r="Q3">
-        <v>330.3727485030784</v>
+        <v>315.255367022845</v>
       </c>
       <c r="R3">
-        <v>2973.354736527705</v>
+        <v>2837.298303205605</v>
       </c>
       <c r="S3">
-        <v>0.1354443403975972</v>
+        <v>0.1287348655054794</v>
       </c>
       <c r="T3">
-        <v>0.1444988070096675</v>
+        <v>0.1357406356149786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.4426515</v>
+        <v>0.2510255</v>
       </c>
       <c r="N4">
-        <v>0.885303</v>
+        <v>0.502051</v>
       </c>
       <c r="O4">
-        <v>0.1019520846403269</v>
+        <v>0.06107387375463619</v>
       </c>
       <c r="P4">
-        <v>0.07035914354623346</v>
+        <v>0.04156203397508419</v>
       </c>
       <c r="Q4">
-        <v>67.1617732123575</v>
+        <v>36.34430152927749</v>
       </c>
       <c r="R4">
-        <v>402.970639274145</v>
+        <v>218.065809175665</v>
       </c>
       <c r="S4">
-        <v>0.02753460179115231</v>
+        <v>0.01484123430933717</v>
       </c>
       <c r="T4">
-        <v>0.0195835283021214</v>
+        <v>0.01043259762639572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.162971</v>
+        <v>0.1858026666666667</v>
       </c>
       <c r="N5">
-        <v>0.488913</v>
+        <v>0.557408</v>
       </c>
       <c r="O5">
-        <v>0.03753569836749389</v>
+        <v>0.04520532219744508</v>
       </c>
       <c r="P5">
-        <v>0.0388561881622672</v>
+        <v>0.0461447347659575</v>
       </c>
       <c r="Q5">
-        <v>24.72694962558834</v>
+        <v>26.90112415781333</v>
       </c>
       <c r="R5">
-        <v>222.542546630295</v>
+        <v>242.11011742032</v>
       </c>
       <c r="S5">
-        <v>0.0101374141700771</v>
+        <v>0.01098510275370299</v>
       </c>
       <c r="T5">
-        <v>0.01081510123966041</v>
+        <v>0.01158291364370151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
         <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.558708666666667</v>
+        <v>1.495937333333333</v>
       </c>
       <c r="N6">
-        <v>4.676126</v>
+        <v>4.487812</v>
       </c>
       <c r="O6">
-        <v>0.3590038617594454</v>
+        <v>0.3639577964822184</v>
       </c>
       <c r="P6">
-        <v>0.3716334638810379</v>
+        <v>0.3715212096336638</v>
       </c>
       <c r="Q6">
-        <v>128.2020280512487</v>
+        <v>123.0391567534173</v>
       </c>
       <c r="R6">
-        <v>1153.818252461238</v>
+        <v>1107.352410780756</v>
       </c>
       <c r="S6">
-        <v>0.05255953829640349</v>
+        <v>0.05024317094468679</v>
       </c>
       <c r="T6">
-        <v>0.05607314826529267</v>
+        <v>0.05297741161700693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>6.532287</v>
       </c>
       <c r="O7">
-        <v>0.5015083552327337</v>
+        <v>0.5297630075657004</v>
       </c>
       <c r="P7">
-        <v>0.5191512044104615</v>
+        <v>0.5407720216252946</v>
       </c>
       <c r="Q7">
         <v>179.091076932659</v>
@@ -886,10 +886,10 @@
         <v>1611.819692393931</v>
       </c>
       <c r="S7">
-        <v>0.07342274111937931</v>
+        <v>0.07313203235802999</v>
       </c>
       <c r="T7">
-        <v>0.07833105811572313</v>
+        <v>0.07711188819839675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4426515</v>
+        <v>0.2510255</v>
       </c>
       <c r="N8">
-        <v>0.885303</v>
+        <v>0.502051</v>
       </c>
       <c r="O8">
-        <v>0.1019520846403269</v>
+        <v>0.06107387375463619</v>
       </c>
       <c r="P8">
-        <v>0.07035914354623346</v>
+        <v>0.04156203397508419</v>
       </c>
       <c r="Q8">
-        <v>36.4075861214565</v>
+        <v>20.6465639672105</v>
       </c>
       <c r="R8">
-        <v>218.445516728739</v>
+        <v>123.879383803263</v>
       </c>
       <c r="S8">
-        <v>0.01492617508566522</v>
+        <v>0.008431046426170799</v>
       </c>
       <c r="T8">
-        <v>0.01061599417524429</v>
+        <v>0.005926576799502729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.162971</v>
+        <v>0.1858026666666667</v>
       </c>
       <c r="N9">
-        <v>0.488913</v>
+        <v>0.557408</v>
       </c>
       <c r="O9">
-        <v>0.03753569836749389</v>
+        <v>0.04520532219744508</v>
       </c>
       <c r="P9">
-        <v>0.0388561881622672</v>
+        <v>0.0461447347659575</v>
       </c>
       <c r="Q9">
-        <v>13.404180755741</v>
+        <v>15.28205956212267</v>
       </c>
       <c r="R9">
-        <v>120.637626801669</v>
+        <v>137.538536059104</v>
       </c>
       <c r="S9">
-        <v>0.005495369788390972</v>
+        <v>0.006240445328355104</v>
       </c>
       <c r="T9">
-        <v>0.00586273576414088</v>
+        <v>0.00658005127100079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.558708666666667</v>
+        <v>1.495937333333333</v>
       </c>
       <c r="N10">
-        <v>4.676126</v>
+        <v>4.487812</v>
       </c>
       <c r="O10">
-        <v>0.3590038617594454</v>
+        <v>0.3639577964822184</v>
       </c>
       <c r="P10">
-        <v>0.3716334638810379</v>
+        <v>0.3715212096336638</v>
       </c>
       <c r="Q10">
-        <v>192.413732993482</v>
+        <v>245.1229306356724</v>
       </c>
       <c r="R10">
-        <v>1731.723596941338</v>
+        <v>2206.106375721052</v>
       </c>
       <c r="S10">
-        <v>0.07888468787702904</v>
+        <v>0.1000962102745282</v>
       </c>
       <c r="T10">
-        <v>0.08415813651644387</v>
+        <v>0.1055434605999312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H11">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I11">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J11">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>6.532287</v>
       </c>
       <c r="O11">
-        <v>0.5015083552327337</v>
+        <v>0.5297630075657004</v>
       </c>
       <c r="P11">
-        <v>0.5191512044104615</v>
+        <v>0.5407720216252946</v>
       </c>
       <c r="Q11">
-        <v>268.791244430709</v>
+        <v>356.7915352054197</v>
       </c>
       <c r="R11">
-        <v>2419.121199876381</v>
+        <v>3211.123816848777</v>
       </c>
       <c r="S11">
-        <v>0.110197505610023</v>
+        <v>0.1456962041024818</v>
       </c>
       <c r="T11">
-        <v>0.1175642189946532</v>
+        <v>0.1536250127260105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4426515</v>
+        <v>0.2510255</v>
       </c>
       <c r="N12">
-        <v>0.885303</v>
+        <v>0.502051</v>
       </c>
       <c r="O12">
-        <v>0.1019520846403269</v>
+        <v>0.06107387375463619</v>
       </c>
       <c r="P12">
-        <v>0.07035914354623346</v>
+        <v>0.04156203397508419</v>
       </c>
       <c r="Q12">
-        <v>54.6428138571315</v>
+        <v>41.13281008047017</v>
       </c>
       <c r="R12">
-        <v>327.856883142789</v>
+        <v>246.796860482821</v>
       </c>
       <c r="S12">
-        <v>0.0224021500377441</v>
+        <v>0.01679662688561948</v>
       </c>
       <c r="T12">
-        <v>0.01593315721869285</v>
+        <v>0.01180713450956859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.162971</v>
+        <v>0.1858026666666667</v>
       </c>
       <c r="N13">
-        <v>0.488913</v>
+        <v>0.557408</v>
       </c>
       <c r="O13">
-        <v>0.03753569836749389</v>
+        <v>0.04520532219744508</v>
       </c>
       <c r="P13">
-        <v>0.0388561881622672</v>
+        <v>0.0461447347659575</v>
       </c>
       <c r="Q13">
-        <v>20.117844437691</v>
+        <v>30.44545594150756</v>
       </c>
       <c r="R13">
-        <v>181.060599939219</v>
+        <v>274.009103473568</v>
       </c>
       <c r="S13">
-        <v>0.008247799439968449</v>
+        <v>0.01243243441942403</v>
       </c>
       <c r="T13">
-        <v>0.008799165591060662</v>
+        <v>0.01310900930923275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H14">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I14">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J14">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.558708666666667</v>
+        <v>1.495937333333333</v>
       </c>
       <c r="N14">
-        <v>4.676126</v>
+        <v>4.487812</v>
       </c>
       <c r="O14">
-        <v>0.3590038617594454</v>
+        <v>0.3639577964822184</v>
       </c>
       <c r="P14">
-        <v>0.3716334638810379</v>
+        <v>0.3715212096336638</v>
       </c>
       <c r="Q14">
-        <v>77.985799107125</v>
+        <v>85.30404551993799</v>
       </c>
       <c r="R14">
-        <v>467.9147946427501</v>
+        <v>511.824273119628</v>
       </c>
       <c r="S14">
-        <v>0.03197217436457428</v>
+        <v>0.03483399800862622</v>
       </c>
       <c r="T14">
-        <v>0.02273967810750015</v>
+        <v>0.02448644616533229</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H15">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I15">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J15">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>6.532287</v>
       </c>
       <c r="O15">
-        <v>0.5015083552327337</v>
+        <v>0.5297630075657004</v>
       </c>
       <c r="P15">
-        <v>0.5191512044104615</v>
+        <v>0.5407720216252946</v>
       </c>
       <c r="Q15">
-        <v>108.9418081745625</v>
+        <v>124.1652964957755</v>
       </c>
       <c r="R15">
-        <v>653.650849047375</v>
+        <v>744.991778974653</v>
       </c>
       <c r="S15">
-        <v>0.04466334289611568</v>
+        <v>0.05070303131008495</v>
       </c>
       <c r="T15">
-        <v>0.03176606098420099</v>
+        <v>0.03564153176692784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H16">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I16">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J16">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.4426515</v>
+        <v>0.2510255</v>
       </c>
       <c r="N16">
-        <v>0.885303</v>
+        <v>0.502051</v>
       </c>
       <c r="O16">
-        <v>0.1019520846403269</v>
+        <v>0.06107387375463619</v>
       </c>
       <c r="P16">
-        <v>0.07035914354623346</v>
+        <v>0.04156203397508419</v>
       </c>
       <c r="Q16">
-        <v>22.14687817659375</v>
+        <v>14.31443029164225</v>
       </c>
       <c r="R16">
-        <v>88.58751270637499</v>
+        <v>57.257721166569</v>
       </c>
       <c r="S16">
-        <v>0.0090796511518768</v>
+        <v>0.005845312883281031</v>
       </c>
       <c r="T16">
-        <v>0.004305167407294886</v>
+        <v>0.002739295849235939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.162971</v>
+        <v>0.1858026666666667</v>
       </c>
       <c r="N17">
-        <v>0.488913</v>
+        <v>0.557408</v>
       </c>
       <c r="O17">
-        <v>0.03753569836749389</v>
+        <v>0.04520532219744508</v>
       </c>
       <c r="P17">
-        <v>0.0388561881622672</v>
+        <v>0.0461447347659575</v>
       </c>
       <c r="Q17">
-        <v>8.153816000437502</v>
+        <v>10.595175868592</v>
       </c>
       <c r="R17">
-        <v>48.92289600262501</v>
+        <v>63.571055211552</v>
       </c>
       <c r="S17">
-        <v>0.003342855108076024</v>
+        <v>0.004326551371134158</v>
       </c>
       <c r="T17">
-        <v>0.002377550186323513</v>
+        <v>0.003041335284126327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H18">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I18">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J18">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.558708666666667</v>
+        <v>1.495937333333333</v>
       </c>
       <c r="N18">
-        <v>4.676126</v>
+        <v>4.487812</v>
       </c>
       <c r="O18">
-        <v>0.3590038617594454</v>
+        <v>0.3639577964822184</v>
       </c>
       <c r="P18">
-        <v>0.3716334638810379</v>
+        <v>0.3715212096336638</v>
       </c>
       <c r="Q18">
-        <v>240.5757353694644</v>
+        <v>221.2336237163111</v>
       </c>
       <c r="R18">
-        <v>2165.18161832518</v>
+        <v>1991.1026134468</v>
       </c>
       <c r="S18">
-        <v>0.09862987168410586</v>
+        <v>0.09034098630379642</v>
       </c>
       <c r="T18">
-        <v>0.105223287676941</v>
+        <v>0.09525735592149621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H19">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I19">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J19">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>6.532287</v>
       </c>
       <c r="O19">
-        <v>0.5015083552327337</v>
+        <v>0.5297630075657004</v>
       </c>
       <c r="P19">
-        <v>0.5191512044104615</v>
+        <v>0.5407720216252946</v>
       </c>
       <c r="Q19">
-        <v>336.0708733403233</v>
+        <v>322.0191764193667</v>
       </c>
       <c r="R19">
-        <v>3024.63786006291</v>
+        <v>2898.1725877743</v>
       </c>
       <c r="S19">
-        <v>0.1377804252096186</v>
+        <v>0.1314968742896243</v>
       </c>
       <c r="T19">
-        <v>0.1469910593062167</v>
+        <v>0.138652953318981</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H20">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I20">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J20">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.4426515</v>
+        <v>0.2510255</v>
       </c>
       <c r="N20">
-        <v>0.885303</v>
+        <v>0.502051</v>
       </c>
       <c r="O20">
-        <v>0.1019520846403269</v>
+        <v>0.06107387375463619</v>
       </c>
       <c r="P20">
-        <v>0.07035914354623346</v>
+        <v>0.04156203397508419</v>
       </c>
       <c r="Q20">
-        <v>68.32015013596499</v>
+        <v>37.12406915231667</v>
       </c>
       <c r="R20">
-        <v>409.92090081579</v>
+        <v>222.7444149139</v>
       </c>
       <c r="S20">
-        <v>0.0280095065738885</v>
+        <v>0.01515965325022772</v>
       </c>
       <c r="T20">
-        <v>0.01992129644288004</v>
+        <v>0.01065642919038121</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H21">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I21">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J21">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.162971</v>
+        <v>0.1858026666666667</v>
       </c>
       <c r="N21">
-        <v>0.488913</v>
+        <v>0.557408</v>
       </c>
       <c r="O21">
-        <v>0.03753569836749389</v>
+        <v>0.04520532219744508</v>
       </c>
       <c r="P21">
-        <v>0.0388561881622672</v>
+        <v>0.0461447347659575</v>
       </c>
       <c r="Q21">
-        <v>25.15342925034333</v>
+        <v>27.47828824568889</v>
       </c>
       <c r="R21">
-        <v>226.38086325309</v>
+        <v>247.3045942112</v>
       </c>
       <c r="S21">
-        <v>0.01031225986098134</v>
+        <v>0.01122078832482879</v>
       </c>
       <c r="T21">
-        <v>0.01100163538108174</v>
+        <v>0.01183142525789613</v>
       </c>
     </row>
   </sheetData>
